--- a/src/assets/zxsj_mb/sjzxtb_K15_web.xlsx
+++ b/src/assets/zxsj_mb/sjzxtb_K15_web.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>年度</t>
   </si>
@@ -53,39 +53,6 @@
   </si>
   <si>
     <t>总访问量</t>
-  </si>
-  <si>
-    <t>nd</t>
-  </si>
-  <si>
-    <t>xxdm</t>
-  </si>
-  <si>
-    <t>xxmc</t>
-  </si>
-  <si>
-    <t>sxxss</t>
-  </si>
-  <si>
-    <t>sxjss</t>
-  </si>
-  <si>
-    <t>xszxzsc</t>
-  </si>
-  <si>
-    <t>jszxzsc</t>
-  </si>
-  <si>
-    <t>xsfwzs</t>
-  </si>
-  <si>
-    <t>xsftzs</t>
-  </si>
-  <si>
-    <t>jsftzs</t>
-  </si>
-  <si>
-    <t>gg_wzfwl</t>
   </si>
   <si>
     <t>上海开放大学</t>
@@ -121,21 +88,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -151,8 +103,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,91 +195,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,181 +247,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +450,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -502,33 +519,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,39 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,137 +567,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,9 +705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1068,10 +1032,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -1136,50 +1100,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:11">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="27" customHeight="1" spans="1:11">
+      <c r="A3" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="3">
+        <v>51252</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:11">
       <c r="A4" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="3">
         <v>51252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1208,13 +1172,13 @@
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:11">
       <c r="A5" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="3">
         <v>51252</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1241,50 +1205,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:11">
+    <row r="6" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="3">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="3">
-        <v>51252</v>
+        <v>31009</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="23" customHeight="1" spans="1:11">
-      <c r="A7" s="4">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="3">
         <v>31009</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -1312,14 +1276,14 @@
       </c>
     </row>
     <row r="8" ht="23" customHeight="1" spans="1:11">
-      <c r="A8" s="4">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="3">
         <v>31009</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -1346,53 +1310,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="23" customHeight="1" spans="1:11">
-      <c r="A9" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="4">
-        <v>31009</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+    <row r="9" customHeight="1" spans="1:11">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
